--- a/includes/colorpal workbook.xlsx
+++ b/includes/colorpal workbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\truenas\Byrd\Files\Files\Wells Fargo\a\ColorPal\includes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TRUENAS\Byrd\Files\Files\Wells Fargo\a\ColorPal\includes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CC9FA9-94DF-4A9B-A700-92A9E08E4029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFFC1D0-9800-49FD-9D7C-85D135C38E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14190" yWindow="1740" windowWidth="21090" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="codeconvert" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">palette!$A$1:$E$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">palette!$A$1:$E$157</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">palettes!$A$1:$E$2876</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10887" uniqueCount="1995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10893" uniqueCount="1998">
   <si>
     <t>ColorCode</t>
   </si>
@@ -6096,9 +6096,6 @@
     <t>compass.beige</t>
   </si>
   <si>
-    <t>compass.beige.light</t>
-  </si>
-  <si>
     <t>compass.digital.blue.light</t>
   </si>
   <si>
@@ -6118,6 +6115,18 @@
   </si>
   <si>
     <t>compass.digital.purple</t>
+  </si>
+  <si>
+    <t>compass.beige.dark</t>
+  </si>
+  <si>
+    <t>ccl.black</t>
+  </si>
+  <si>
+    <t>ccl.tan</t>
+  </si>
+  <si>
+    <t>ccl.tan.light</t>
   </si>
 </sst>
 </file>
@@ -60060,10 +60069,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708420DD-C169-4EC8-BE1A-AC48FAB04E1C}">
-  <dimension ref="A1:F154"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60098,18 +60108,18 @@
         <v>1974</v>
       </c>
       <c r="B2" t="s">
-        <v>1986</v>
+        <v>1995</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <f>"CALL cpal."&amp;A2&amp;".compass;"</f>
-        <v>CALL cpal.brand.compass;</v>
+        <f>"CALL cpal."&amp;A2&amp;".ccl;"</f>
+        <v>CALL cpal.brand.ccl;</v>
       </c>
       <c r="E2" t="str">
         <f>"$(cpal."&amp;A2&amp;"."&amp;B2&amp;IF(F2="x","."&amp;C2,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.compass.beige(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.ccl.black(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -60117,18 +60127,18 @@
         <v>1974</v>
       </c>
       <c r="B3" t="s">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="str">
-        <f>"CALL cpal."&amp;A3&amp;".compass;"</f>
-        <v>CALL cpal.brand.compass;</v>
+        <f>"CALL cpal."&amp;A3&amp;".ccl;"</f>
+        <v>CALL cpal.brand.ccl;</v>
       </c>
       <c r="E3" t="str">
-        <f>"$(cpal."&amp;A3&amp;"."&amp;B3&amp;IF(F3="x","."&amp;C3,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.compass.beige.light(&lt;0-255&gt;))</v>
+        <f t="shared" ref="E3:E4" si="0">"$(cpal."&amp;A3&amp;"."&amp;B3&amp;IF(F3="x","."&amp;C3,"")&amp;"(&lt;0-255&gt;))"</f>
+        <v>$(cpal.brand.ccl.tan(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -60136,18 +60146,18 @@
         <v>1974</v>
       </c>
       <c r="B4" t="s">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <f>"CALL cpal."&amp;A4&amp;".compass.digital;"</f>
-        <v>CALL cpal.brand.compass.digital;</v>
+        <f>"CALL cpal."&amp;A4&amp;".ccl;"</f>
+        <v>CALL cpal.brand.ccl;</v>
       </c>
       <c r="E4" t="str">
-        <f>"$(cpal."&amp;A4&amp;"."&amp;B4&amp;IF(F4="x","."&amp;C4,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.compass.digital.blue(&lt;0-255&gt;))</v>
+        <f t="shared" si="0"/>
+        <v>$(cpal.brand.ccl.tan.light(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -60155,18 +60165,18 @@
         <v>1974</v>
       </c>
       <c r="B5" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="str">
-        <f>"CALL cpal."&amp;A5&amp;".compass.digital;"</f>
-        <v>CALL cpal.brand.compass.digital;</v>
+        <f>"CALL cpal."&amp;A5&amp;".compass;"</f>
+        <v>CALL cpal.brand.compass;</v>
       </c>
       <c r="E5" t="str">
         <f>"$(cpal."&amp;A5&amp;"."&amp;B5&amp;IF(F5="x","."&amp;C5,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.compass.digital.blue.dark(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.compass.beige(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -60174,18 +60184,18 @@
         <v>1974</v>
       </c>
       <c r="B6" t="s">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f>"CALL cpal."&amp;A6&amp;".compass.digital;"</f>
-        <v>CALL cpal.brand.compass.digital;</v>
+        <f>"CALL cpal."&amp;A6&amp;".compass;"</f>
+        <v>CALL cpal.brand.compass;</v>
       </c>
       <c r="E6" t="str">
         <f>"$(cpal."&amp;A6&amp;"."&amp;B6&amp;IF(F6="x","."&amp;C6,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.compass.digital.blue.light(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.compass.beige.dark(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -60193,7 +60203,7 @@
         <v>1974</v>
       </c>
       <c r="B7" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -60204,7 +60214,7 @@
       </c>
       <c r="E7" t="str">
         <f>"$(cpal."&amp;A7&amp;"."&amp;B7&amp;IF(F7="x","."&amp;C7,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.compass.digital.purple(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.compass.digital.blue(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -60212,7 +60222,7 @@
         <v>1974</v>
       </c>
       <c r="B8" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -60223,7 +60233,7 @@
       </c>
       <c r="E8" t="str">
         <f>"$(cpal."&amp;A8&amp;"."&amp;B8&amp;IF(F8="x","."&amp;C8,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.compass.digital.purple.light(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.compass.digital.blue.dark(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -60231,7 +60241,7 @@
         <v>1974</v>
       </c>
       <c r="B9" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -60242,7 +60252,7 @@
       </c>
       <c r="E9" t="str">
         <f>"$(cpal."&amp;A9&amp;"."&amp;B9&amp;IF(F9="x","."&amp;C9,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.compass.digital.teal(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.compass.digital.blue.light(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -60250,7 +60260,7 @@
         <v>1974</v>
       </c>
       <c r="B10" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -60261,7 +60271,7 @@
       </c>
       <c r="E10" t="str">
         <f>"$(cpal."&amp;A10&amp;"."&amp;B10&amp;IF(F10="x","."&amp;C10,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.compass.digital.teal.light(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.compass.digital.purple(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -60269,18 +60279,18 @@
         <v>1974</v>
       </c>
       <c r="B11" t="s">
-        <v>1975</v>
+        <v>1992</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="str">
-        <f>"CALL cpal."&amp;A11&amp;".crth;"</f>
-        <v>CALL cpal.brand.crth;</v>
+        <f>"CALL cpal."&amp;A11&amp;".compass.digital;"</f>
+        <v>CALL cpal.brand.compass.digital;</v>
       </c>
       <c r="E11" t="str">
         <f>"$(cpal."&amp;A11&amp;"."&amp;B11&amp;IF(F11="x","."&amp;C11,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.crth.blue(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.compass.digital.purple.light(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -60288,18 +60298,18 @@
         <v>1974</v>
       </c>
       <c r="B12" t="s">
-        <v>1976</v>
+        <v>1990</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="str">
-        <f>"CALL cpal."&amp;A12&amp;".crth;"</f>
-        <v>CALL cpal.brand.crth;</v>
+        <f>"CALL cpal."&amp;A12&amp;".compass.digital;"</f>
+        <v>CALL cpal.brand.compass.digital;</v>
       </c>
       <c r="E12" t="str">
         <f>"$(cpal."&amp;A12&amp;"."&amp;B12&amp;IF(F12="x","."&amp;C12,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.crth.blue.dark(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.compass.digital.teal(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -60307,18 +60317,18 @@
         <v>1974</v>
       </c>
       <c r="B13" t="s">
-        <v>1979</v>
+        <v>1991</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="str">
-        <f>"CALL cpal."&amp;A13&amp;".crth;"</f>
-        <v>CALL cpal.brand.crth;</v>
+        <f>"CALL cpal."&amp;A13&amp;".compass.digital;"</f>
+        <v>CALL cpal.brand.compass.digital;</v>
       </c>
       <c r="E13" t="str">
         <f>"$(cpal."&amp;A13&amp;"."&amp;B13&amp;IF(F13="x","."&amp;C13,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.crth.gray(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.compass.digital.teal.light(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -60326,18 +60336,18 @@
         <v>1974</v>
       </c>
       <c r="B14" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="str">
-        <f>"CALL cpal."&amp;A14&amp;".mhc;"</f>
-        <v>CALL cpal.brand.mhc;</v>
+        <f>"CALL cpal."&amp;A14&amp;".crth;"</f>
+        <v>CALL cpal.brand.crth;</v>
       </c>
       <c r="E14" t="str">
         <f>"$(cpal."&amp;A14&amp;"."&amp;B14&amp;IF(F14="x","."&amp;C14,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.crth.gray.light(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.crth.blue(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -60345,7 +60355,7 @@
         <v>1974</v>
       </c>
       <c r="B15" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -60356,7 +60366,7 @@
       </c>
       <c r="E15" t="str">
         <f>"$(cpal."&amp;A15&amp;"."&amp;B15&amp;IF(F15="x","."&amp;C15,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.crth.orange(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.crth.blue.dark(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -60364,7 +60374,7 @@
         <v>1974</v>
       </c>
       <c r="B16" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -60375,7 +60385,7 @@
       </c>
       <c r="E16" t="str">
         <f>"$(cpal."&amp;A16&amp;"."&amp;B16&amp;IF(F16="x","."&amp;C16,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.crth.teal(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.crth.gray(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -60383,7 +60393,7 @@
         <v>1974</v>
       </c>
       <c r="B17" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -60394,7 +60404,7 @@
       </c>
       <c r="E17" t="str">
         <f>"$(cpal."&amp;A17&amp;"."&amp;B17&amp;IF(F17="x","."&amp;C17,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.mhc.gray(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.crth.gray.light(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -60402,18 +60412,18 @@
         <v>1974</v>
       </c>
       <c r="B18" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="str">
-        <f>"CALL cpal."&amp;A18&amp;".mhc;"</f>
-        <v>CALL cpal.brand.mhc;</v>
+        <f>"CALL cpal."&amp;A18&amp;".crth;"</f>
+        <v>CALL cpal.brand.crth;</v>
       </c>
       <c r="E18" t="str">
         <f>"$(cpal."&amp;A18&amp;"."&amp;B18&amp;IF(F18="x","."&amp;C18,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.mhc.gray.light(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.crth.orange(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -60421,18 +60431,18 @@
         <v>1974</v>
       </c>
       <c r="B19" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="str">
-        <f>"CALL cpal."&amp;A19&amp;".mhc;"</f>
-        <v>CALL cpal.brand.mhc;</v>
+        <f>"CALL cpal."&amp;A19&amp;".crth;"</f>
+        <v>CALL cpal.brand.crth;</v>
       </c>
       <c r="E19" t="str">
         <f>"$(cpal."&amp;A19&amp;"."&amp;B19&amp;IF(F19="x","."&amp;C19,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.mhc.green(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.crth.teal(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -60440,7 +60450,7 @@
         <v>1974</v>
       </c>
       <c r="B20" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -60451,7 +60461,7 @@
       </c>
       <c r="E20" t="str">
         <f>"$(cpal."&amp;A20&amp;"."&amp;B20&amp;IF(F20="x","."&amp;C20,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.mhc.green.dark(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.mhc.gray(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -60459,7 +60469,7 @@
         <v>1974</v>
       </c>
       <c r="B21" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -60470,2686 +60480,2749 @@
       </c>
       <c r="E21" t="str">
         <f>"$(cpal."&amp;A21&amp;"."&amp;B21&amp;IF(F21="x","."&amp;C21,"")&amp;"(&lt;0-255&gt;))"</f>
-        <v>$(cpal.brand.mhc.green.light(&lt;0-255&gt;))</v>
+        <v>$(cpal.brand.mhc.gray.light(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>1974</v>
       </c>
       <c r="B22" t="s">
-        <v>1818</v>
+        <v>1981</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="str">
-        <f>"CALL cpal."&amp;A22&amp;"."&amp;B22&amp;";"</f>
-        <v>CALL cpal.qual.morris;</v>
+        <f>"CALL cpal."&amp;A22&amp;".mhc;"</f>
+        <v>CALL cpal.brand.mhc;</v>
       </c>
       <c r="E22" t="str">
-        <f>"$(cpal."&amp;A22&amp;"."&amp;B22&amp;IF(F22="x","."&amp;C22,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.morris(&lt;measure&gt;))</v>
+        <f>"$(cpal."&amp;A22&amp;"."&amp;B22&amp;IF(F22="x","."&amp;C22,"")&amp;"(&lt;0-255&gt;))"</f>
+        <v>$(cpal.brand.mhc.green(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>1974</v>
       </c>
       <c r="B23" t="s">
-        <v>1491</v>
+        <v>1983</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="str">
-        <f>"CALL cpal."&amp;A23&amp;"."&amp;B23&amp;";"</f>
-        <v>CALL cpal.qual.bootstrap;</v>
+        <f>"CALL cpal."&amp;A23&amp;".mhc;"</f>
+        <v>CALL cpal.brand.mhc;</v>
       </c>
       <c r="E23" t="str">
-        <f>"$(cpal."&amp;A23&amp;"."&amp;B23&amp;IF(F23="x","."&amp;C23,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.bootstrap(&lt;measure&gt;))</v>
+        <f>"$(cpal."&amp;A23&amp;"."&amp;B23&amp;IF(F23="x","."&amp;C23,"")&amp;"(&lt;0-255&gt;))"</f>
+        <v>$(cpal.brand.mhc.green.dark(&lt;0-255&gt;))</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>1974</v>
       </c>
       <c r="B24" t="s">
-        <v>1821</v>
+        <v>1982</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" t="str">
-        <f>"CALL cpal."&amp;A24&amp;"."&amp;B24&amp;";"</f>
-        <v>CALL cpal.qual.compote;</v>
+        <f>"CALL cpal."&amp;A24&amp;".mhc;"</f>
+        <v>CALL cpal.brand.mhc;</v>
       </c>
       <c r="E24" t="str">
-        <f>"$(cpal."&amp;A24&amp;"."&amp;B24&amp;IF(F24="x","."&amp;C24,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.compote(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;A24&amp;"."&amp;B24&amp;IF(F24="x","."&amp;C24,"")&amp;"(&lt;0-255&gt;))"</f>
+        <v>$(cpal.brand.mhc.green.light(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="str">
         <f>"CALL cpal."&amp;A25&amp;"."&amp;B25&amp;";"</f>
-        <v>CALL cpal.qual.fall;</v>
+        <v>CALL cpal.qual.morris;</v>
       </c>
       <c r="E25" t="str">
         <f>"$(cpal."&amp;A25&amp;"."&amp;B25&amp;IF(F25="x","."&amp;C25,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.fall(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.morris(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>195</v>
       </c>
       <c r="B26" t="s">
-        <v>1819</v>
+        <v>1491</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="str">
         <f>"CALL cpal."&amp;A26&amp;"."&amp;B26&amp;";"</f>
-        <v>CALL cpal.qual.flot;</v>
+        <v>CALL cpal.qual.bootstrap;</v>
       </c>
       <c r="E26" t="str">
         <f>"$(cpal."&amp;A26&amp;"."&amp;B26&amp;IF(F26="x","."&amp;C26,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.flot(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.bootstrap(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>1492</v>
+        <v>1821</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27" t="str">
         <f>"CALL cpal."&amp;A27&amp;"."&amp;B27&amp;";"</f>
-        <v>CALL cpal.qual.google;</v>
+        <v>CALL cpal.qual.compote;</v>
       </c>
       <c r="E27" t="str">
         <f>"$(cpal."&amp;A27&amp;"."&amp;B27&amp;IF(F27="x","."&amp;C27,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.google(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.compote(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>1835</v>
+        <v>1822</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28" t="str">
         <f>"CALL cpal."&amp;A28&amp;"."&amp;B28&amp;";"</f>
-        <v>CALL cpal.qual.hot;</v>
+        <v>CALL cpal.qual.fall;</v>
       </c>
       <c r="E28" t="str">
         <f>"$(cpal."&amp;A28&amp;"."&amp;B28&amp;IF(F28="x","."&amp;C28,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.hot(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.fall(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29" t="str">
         <f>"CALL cpal."&amp;A29&amp;"."&amp;B29&amp;";"</f>
-        <v>CALL cpal.qual.pebble;</v>
+        <v>CALL cpal.qual.flot;</v>
       </c>
       <c r="E29" t="str">
         <f>"$(cpal."&amp;A29&amp;"."&amp;B29&amp;IF(F29="x","."&amp;C29,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.pebble(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.flot(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>1824</v>
+        <v>1492</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="str">
         <f>"CALL cpal."&amp;A30&amp;"."&amp;B30&amp;";"</f>
-        <v>CALL cpal.qual.scholar;</v>
+        <v>CALL cpal.qual.google;</v>
       </c>
       <c r="E30" t="str">
         <f>"$(cpal."&amp;A30&amp;"."&amp;B30&amp;IF(F30="x","."&amp;C30,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.scholar(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.google(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>1820</v>
+        <v>1835</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31" t="str">
         <f>"CALL cpal."&amp;A31&amp;"."&amp;B31&amp;";"</f>
-        <v>CALL cpal.qual.scuba;</v>
+        <v>CALL cpal.qual.hot;</v>
       </c>
       <c r="E31" t="str">
         <f>"$(cpal."&amp;A31&amp;"."&amp;B31&amp;IF(F31="x","."&amp;C31,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.scuba(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.hot(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>1485</v>
+        <v>1823</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="str">
         <f>"CALL cpal."&amp;A32&amp;"."&amp;B32&amp;";"</f>
-        <v>CALL cpal.qual.asana;</v>
+        <v>CALL cpal.qual.pebble;</v>
       </c>
       <c r="E32" t="str">
         <f>"$(cpal."&amp;A32&amp;"."&amp;B32&amp;IF(F32="x","."&amp;C32,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.asana(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.pebble(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="str">
         <f>"CALL cpal."&amp;A33&amp;"."&amp;B33&amp;";"</f>
-        <v>CALL cpal.qual.blackbody;</v>
+        <v>CALL cpal.qual.scholar;</v>
       </c>
       <c r="E33" t="str">
         <f>"$(cpal."&amp;A33&amp;"."&amp;B33&amp;IF(F33="x","."&amp;C33,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.blackbody.5(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.scholar.4(&lt;measure&gt;))</v>
       </c>
       <c r="F33" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>195</v>
       </c>
       <c r="B34" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="str">
         <f>"CALL cpal."&amp;A34&amp;"."&amp;B34&amp;";"</f>
-        <v>CALL cpal.qual.brave;</v>
+        <v>CALL cpal.qual.scuba;</v>
       </c>
       <c r="E34" t="str">
         <f>"$(cpal."&amp;A34&amp;"."&amp;B34&amp;IF(F34="x","."&amp;C34,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.brave.5(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.scuba.4(&lt;measure&gt;))</v>
       </c>
       <c r="F34" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>1827</v>
+        <v>1485</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
       <c r="D35" t="str">
         <f>"CALL cpal."&amp;A35&amp;"."&amp;B35&amp;";"</f>
-        <v>CALL cpal.qual.bugs;</v>
+        <v>CALL cpal.qual.asana;</v>
       </c>
       <c r="E35" t="str">
         <f>"$(cpal."&amp;A35&amp;"."&amp;B35&amp;IF(F35="x","."&amp;C35,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.bugs.5(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.asana.5(&lt;measure&gt;))</v>
       </c>
       <c r="F35" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>195</v>
       </c>
       <c r="B36" t="s">
-        <v>1828</v>
+        <v>1834</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36" t="str">
         <f>"CALL cpal."&amp;A36&amp;"."&amp;B36&amp;";"</f>
-        <v>CALL cpal.qual.cars;</v>
+        <v>CALL cpal.qual.blackbody;</v>
       </c>
       <c r="E36" t="str">
         <f>"$(cpal."&amp;A36&amp;"."&amp;B36&amp;IF(F36="x","."&amp;C36,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.cars.5(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.blackbody.5(&lt;measure&gt;))</v>
       </c>
       <c r="F36" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>195</v>
       </c>
       <c r="B37" t="s">
-        <v>1673</v>
+        <v>1826</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37" t="str">
         <f>"CALL cpal."&amp;A37&amp;"."&amp;B37&amp;";"</f>
-        <v>CALL cpal.qual.emo;</v>
+        <v>CALL cpal.qual.brave;</v>
       </c>
       <c r="E37" t="str">
         <f>"$(cpal."&amp;A37&amp;"."&amp;B37&amp;IF(F37="x","."&amp;C37,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.emo.5(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.brave.5(&lt;measure&gt;))</v>
       </c>
       <c r="F37" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>195</v>
       </c>
       <c r="B38" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="C38">
         <v>5</v>
       </c>
       <c r="D38" t="str">
         <f>"CALL cpal."&amp;A38&amp;"."&amp;B38&amp;";"</f>
-        <v>CALL cpal.qual.espresso;</v>
+        <v>CALL cpal.qual.bugs;</v>
       </c>
       <c r="E38" t="str">
         <f>"$(cpal."&amp;A38&amp;"."&amp;B38&amp;IF(F38="x","."&amp;C38,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.espresso.5(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.bugs.5(&lt;measure&gt;))</v>
       </c>
       <c r="F38" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>195</v>
       </c>
       <c r="B39" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39" t="str">
         <f>"CALL cpal."&amp;A39&amp;"."&amp;B39&amp;";"</f>
-        <v>CALL cpal.qual.lubitel;</v>
+        <v>CALL cpal.qual.cars;</v>
       </c>
       <c r="E39" t="str">
         <f>"$(cpal."&amp;A39&amp;"."&amp;B39&amp;IF(F39="x","."&amp;C39,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.lubitel(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.cars(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
       <c r="D40" t="str">
         <f>"CALL cpal."&amp;A40&amp;"."&amp;B40&amp;";"</f>
-        <v>CALL cpal.qual.nemo;</v>
+        <v>CALL cpal.qual.emo;</v>
       </c>
       <c r="E40" t="str">
         <f>"$(cpal."&amp;A40&amp;"."&amp;B40&amp;IF(F40="x","."&amp;C40,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.nemo(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.emo(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>1674</v>
+        <v>1825</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41" t="str">
         <f>"CALL cpal."&amp;A41&amp;"."&amp;B41&amp;";"</f>
-        <v>CALL cpal.qual.pancake;</v>
+        <v>CALL cpal.qual.espresso;</v>
       </c>
       <c r="E41" t="str">
         <f>"$(cpal."&amp;A41&amp;"."&amp;B41&amp;IF(F41="x","."&amp;C41,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.pancake(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.espresso(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>195</v>
       </c>
       <c r="B42" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42" t="str">
         <f>"CALL cpal."&amp;A42&amp;"."&amp;B42&amp;";"</f>
-        <v>CALL cpal.qual.portland;</v>
+        <v>CALL cpal.qual.lubitel;</v>
       </c>
       <c r="E42" t="str">
         <f>"$(cpal."&amp;A42&amp;"."&amp;B42&amp;IF(F42="x","."&amp;C42,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.portland(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.lubitel(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>195</v>
       </c>
       <c r="B43" t="s">
-        <v>1829</v>
+        <v>1675</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
       <c r="D43" t="str">
         <f>"CALL cpal."&amp;A43&amp;"."&amp;B43&amp;";"</f>
-        <v>CALL cpal.qual.rat;</v>
+        <v>CALL cpal.qual.nemo;</v>
       </c>
       <c r="E43" t="str">
         <f>"$(cpal."&amp;A43&amp;"."&amp;B43&amp;IF(F43="x","."&amp;C43,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.rat(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.nemo(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>195</v>
       </c>
       <c r="B44" t="s">
-        <v>1942</v>
+        <v>1674</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="D44" t="str">
         <f>"CALL cpal."&amp;A44&amp;"."&amp;B44&amp;";"</f>
-        <v>CALL cpal.qual.seattlegrays;</v>
+        <v>CALL cpal.qual.pancake;</v>
       </c>
       <c r="E44" t="str">
         <f>"$(cpal."&amp;A44&amp;"."&amp;B44&amp;IF(F44="x","."&amp;C44,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.seattlegrays(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.pancake(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
       <c r="D45" t="str">
         <f>"CALL cpal."&amp;A45&amp;"."&amp;B45&amp;";"</f>
-        <v>CALL cpal.qual.up;</v>
+        <v>CALL cpal.qual.portland;</v>
       </c>
       <c r="E45" t="str">
         <f>"$(cpal."&amp;A45&amp;"."&amp;B45&amp;IF(F45="x","."&amp;C45,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.up.5(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.portland.5(&lt;measure&gt;))</v>
       </c>
       <c r="F45" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>195</v>
       </c>
       <c r="B46" t="s">
-        <v>1842</v>
+        <v>1829</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="str">
         <f>"CALL cpal."&amp;A46&amp;"."&amp;B46&amp;";"</f>
-        <v>CALL cpal.qual.appletv;</v>
+        <v>CALL cpal.qual.rat;</v>
       </c>
       <c r="E46" t="str">
         <f>"$(cpal."&amp;A46&amp;"."&amp;B46&amp;IF(F46="x","."&amp;C46,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.appletv.6(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.rat.5(&lt;measure&gt;))</v>
       </c>
       <c r="F46" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>195</v>
       </c>
       <c r="B47" t="s">
-        <v>1839</v>
+        <v>1942</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="str">
         <f>"CALL cpal."&amp;A47&amp;"."&amp;B47&amp;";"</f>
-        <v>CALL cpal.qual.decision;</v>
+        <v>CALL cpal.qual.seattlegrays;</v>
       </c>
       <c r="E47" t="str">
         <f>"$(cpal."&amp;A47&amp;"."&amp;B47&amp;IF(F47="x","."&amp;C47,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.decision.6(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.seattlegrays.5(&lt;measure&gt;))</v>
       </c>
       <c r="F47" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>195</v>
       </c>
       <c r="B48" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="str">
         <f>"CALL cpal."&amp;A48&amp;"."&amp;B48&amp;";"</f>
-        <v>CALL cpal.qual.earth;</v>
+        <v>CALL cpal.qual.up;</v>
       </c>
       <c r="E48" t="str">
         <f>"$(cpal."&amp;A48&amp;"."&amp;B48&amp;IF(F48="x","."&amp;C48,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.earth.6(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.up.5(&lt;measure&gt;))</v>
       </c>
       <c r="F48" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="C49">
         <v>6</v>
       </c>
       <c r="D49" t="str">
         <f>"CALL cpal."&amp;A49&amp;"."&amp;B49&amp;";"</f>
-        <v>CALL cpal.qual.electric;</v>
+        <v>CALL cpal.qual.appletv;</v>
       </c>
       <c r="E49" t="str">
         <f>"$(cpal."&amp;A49&amp;"."&amp;B49&amp;IF(F49="x","."&amp;C49,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.electric.6(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.appletv.6(&lt;measure&gt;))</v>
       </c>
       <c r="F49" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>195</v>
       </c>
       <c r="B50" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50" t="str">
         <f>"CALL cpal."&amp;A50&amp;"."&amp;B50&amp;";"</f>
-        <v>CALL cpal.qual.evildead;</v>
+        <v>CALL cpal.qual.decision;</v>
       </c>
       <c r="E50" t="str">
         <f>"$(cpal."&amp;A50&amp;"."&amp;B50&amp;IF(F50="x","."&amp;C50,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.evildead.6(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.decision.6(&lt;measure&gt;))</v>
       </c>
       <c r="F50" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C51">
         <v>6</v>
       </c>
       <c r="D51" t="str">
         <f>"CALL cpal."&amp;A51&amp;"."&amp;B51&amp;";"</f>
-        <v>CALL cpal.qual.jet;</v>
+        <v>CALL cpal.qual.earth;</v>
       </c>
       <c r="E51" t="str">
         <f>"$(cpal."&amp;A51&amp;"."&amp;B51&amp;IF(F51="x","."&amp;C51,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.jet.6(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.earth.6(&lt;measure&gt;))</v>
       </c>
       <c r="F51" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>195</v>
       </c>
       <c r="B52" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52" t="str">
         <f>"CALL cpal."&amp;A52&amp;"."&amp;B52&amp;";"</f>
-        <v>CALL cpal.qual.southpark;</v>
+        <v>CALL cpal.qual.electric;</v>
       </c>
       <c r="E52" t="str">
         <f>"$(cpal."&amp;A52&amp;"."&amp;B52&amp;IF(F52="x","."&amp;C52,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.southpark.6(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.electric.6(&lt;measure&gt;))</v>
       </c>
       <c r="F52" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="str">
         <f>"CALL cpal."&amp;A53&amp;"."&amp;B53&amp;";"</f>
-        <v>CALL cpal.div.earth;</v>
+        <v>CALL cpal.qual.evildead;</v>
       </c>
       <c r="E53" t="str">
         <f>"$(cpal."&amp;A53&amp;"."&amp;B53&amp;IF(F53="x","."&amp;C53,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.earth.7(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.evildead.6(&lt;measure&gt;))</v>
       </c>
       <c r="F53" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>1822</v>
+        <v>1836</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="str">
         <f>"CALL cpal."&amp;A54&amp;"."&amp;B54&amp;";"</f>
-        <v>CALL cpal.div.fall;</v>
+        <v>CALL cpal.qual.jet;</v>
       </c>
       <c r="E54" t="str">
         <f>"$(cpal."&amp;A54&amp;"."&amp;B54&amp;IF(F54="x","."&amp;C54,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.fall.7(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.jet.6(&lt;measure&gt;))</v>
       </c>
       <c r="F54" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>1872</v>
+        <v>1840</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" t="str">
         <f>"CALL cpal."&amp;A55&amp;"."&amp;B55&amp;";"</f>
-        <v>CALL cpal.div.geyser;</v>
+        <v>CALL cpal.qual.southpark;</v>
       </c>
       <c r="E55" t="str">
         <f>"$(cpal."&amp;A55&amp;"."&amp;B55&amp;IF(F55="x","."&amp;C55,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.geyser.7(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.southpark.6(&lt;measure&gt;))</v>
       </c>
       <c r="F55" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>193</v>
       </c>
       <c r="B56" t="s">
-        <v>1874</v>
+        <v>1837</v>
       </c>
       <c r="C56">
         <v>7</v>
       </c>
       <c r="D56" t="str">
         <f>"CALL cpal."&amp;A56&amp;"."&amp;B56&amp;";"</f>
-        <v>CALL cpal.div.tealrose;</v>
+        <v>CALL cpal.div.earth;</v>
       </c>
       <c r="E56" t="str">
         <f>"$(cpal."&amp;A56&amp;"."&amp;B56&amp;IF(F56="x","."&amp;C56,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.tealrose.7(&lt;measure&gt;))</v>
+        <v>$(cpal.div.earth.7(&lt;measure&gt;))</v>
       </c>
       <c r="F56" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>193</v>
       </c>
       <c r="B57" t="s">
-        <v>1873</v>
+        <v>1822</v>
       </c>
       <c r="C57">
         <v>7</v>
       </c>
       <c r="D57" t="str">
         <f>"CALL cpal."&amp;A57&amp;"."&amp;B57&amp;";"</f>
-        <v>CALL cpal.div.temps;</v>
+        <v>CALL cpal.div.fall;</v>
       </c>
       <c r="E57" t="str">
         <f>"$(cpal."&amp;A57&amp;"."&amp;B57&amp;IF(F57="x","."&amp;C57,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.temps.7(&lt;measure&gt;))</v>
+        <v>$(cpal.div.fall.7(&lt;measure&gt;))</v>
       </c>
       <c r="F57" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>193</v>
       </c>
       <c r="B58" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C58">
         <v>7</v>
       </c>
       <c r="D58" t="str">
         <f>"CALL cpal."&amp;A58&amp;"."&amp;B58&amp;";"</f>
-        <v>CALL cpal.div.tropic;</v>
+        <v>CALL cpal.div.geyser;</v>
       </c>
       <c r="E58" t="str">
         <f>"$(cpal."&amp;A58&amp;"."&amp;B58&amp;IF(F58="x","."&amp;C58,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.tropic.7(&lt;measure&gt;))</v>
+        <v>$(cpal.div.geyser.7(&lt;measure&gt;))</v>
       </c>
       <c r="F58" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
-        <v>1676</v>
+        <v>1874</v>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
       <c r="D59" t="str">
         <f>"CALL cpal."&amp;A59&amp;"."&amp;B59&amp;";"</f>
-        <v>CALL cpal.qual.chartist;</v>
+        <v>CALL cpal.div.tealrose;</v>
       </c>
       <c r="E59" t="str">
         <f>"$(cpal."&amp;A59&amp;"."&amp;B59&amp;IF(F59="x","."&amp;C59,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.chartist.7(&lt;measure&gt;))</v>
+        <v>$(cpal.div.tealrose.7(&lt;measure&gt;))</v>
       </c>
       <c r="F59" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
-        <v>1846</v>
+        <v>1873</v>
       </c>
       <c r="C60">
         <v>7</v>
       </c>
       <c r="D60" t="str">
         <f>"CALL cpal."&amp;A60&amp;"."&amp;B60&amp;";"</f>
-        <v>CALL cpal.qual.eternal;</v>
+        <v>CALL cpal.div.temps;</v>
       </c>
       <c r="E60" t="str">
         <f>"$(cpal."&amp;A60&amp;"."&amp;B60&amp;IF(F60="x","."&amp;C60,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.eternal.7(&lt;measure&gt;))</v>
+        <v>$(cpal.div.temps.7(&lt;measure&gt;))</v>
       </c>
       <c r="F60" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>1845</v>
+        <v>1875</v>
       </c>
       <c r="C61">
         <v>7</v>
       </c>
       <c r="D61" t="str">
         <f>"CALL cpal."&amp;A61&amp;"."&amp;B61&amp;";"</f>
-        <v>CALL cpal.qual.ipod;</v>
+        <v>CALL cpal.div.tropic;</v>
       </c>
       <c r="E61" t="str">
         <f>"$(cpal."&amp;A61&amp;"."&amp;B61&amp;IF(F61="x","."&amp;C61,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.ipod.7(&lt;measure&gt;))</v>
+        <v>$(cpal.div.tropic.7(&lt;measure&gt;))</v>
       </c>
       <c r="F61" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>195</v>
       </c>
       <c r="B62" t="s">
-        <v>1844</v>
+        <v>1676</v>
       </c>
       <c r="C62">
         <v>7</v>
       </c>
       <c r="D62" t="str">
         <f>"CALL cpal."&amp;A62&amp;"."&amp;B62&amp;";"</f>
-        <v>CALL cpal.qual.ohbrother;</v>
+        <v>CALL cpal.qual.chartist;</v>
       </c>
       <c r="E62" t="str">
         <f>"$(cpal."&amp;A62&amp;"."&amp;B62&amp;IF(F62="x","."&amp;C62,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.ohbrother(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.chartist(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>195</v>
       </c>
       <c r="B63" t="s">
-        <v>1887</v>
+        <v>1846</v>
       </c>
       <c r="C63">
         <v>7</v>
       </c>
       <c r="D63" t="str">
         <f>"CALL cpal."&amp;A63&amp;"."&amp;B63&amp;";"</f>
-        <v>CALL cpal.qual.powerbi.7;</v>
+        <v>CALL cpal.qual.eternal;</v>
       </c>
       <c r="E63" t="str">
         <f>"$(cpal."&amp;A63&amp;"."&amp;B63&amp;IF(F63="x","."&amp;C63,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.powerbi.7(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.eternal(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="C64">
         <v>7</v>
       </c>
       <c r="D64" t="str">
         <f>"CALL cpal."&amp;A64&amp;"."&amp;B64&amp;";"</f>
-        <v>CALL cpal.qual.usualsuspects;</v>
+        <v>CALL cpal.qual.ipod;</v>
       </c>
       <c r="E64" t="str">
         <f>"$(cpal."&amp;A64&amp;"."&amp;B64&amp;IF(F64="x","."&amp;C64,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.usualsuspects(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.ipod(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>1901</v>
+        <v>1844</v>
       </c>
       <c r="C65">
         <v>7</v>
       </c>
       <c r="D65" t="str">
         <f>"CALL cpal."&amp;A65&amp;"."&amp;B65&amp;";"</f>
-        <v>CALL cpal.seq.burg;</v>
+        <v>CALL cpal.qual.ohbrother;</v>
       </c>
       <c r="E65" t="str">
         <f>"$(cpal."&amp;A65&amp;"."&amp;B65&amp;IF(F65="x","."&amp;C65,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.burg(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.ohbrother(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>1973</v>
+        <v>1887</v>
       </c>
       <c r="C66">
         <v>7</v>
       </c>
       <c r="D66" t="str">
         <f>"CALL cpal."&amp;A66&amp;"."&amp;B66&amp;";"</f>
-        <v>CALL cpal.seq.burgyl;</v>
+        <v>CALL cpal.qual.powerbi.7;</v>
       </c>
       <c r="E66" t="str">
         <f>"$(cpal."&amp;A66&amp;"."&amp;B66&amp;IF(F66="x","."&amp;C66,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.burgyl(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.powerbi.7(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>1906</v>
+        <v>1843</v>
       </c>
       <c r="C67">
         <v>7</v>
       </c>
       <c r="D67" t="str">
         <f>"CALL cpal."&amp;A67&amp;"."&amp;B67&amp;";"</f>
-        <v>CALL cpal.seq.buyl;</v>
+        <v>CALL cpal.qual.usualsuspects;</v>
       </c>
       <c r="E67" t="str">
         <f>"$(cpal."&amp;A67&amp;"."&amp;B67&amp;IF(F67="x","."&amp;C67,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.buyl(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.usualsuspects(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="C68">
         <v>7</v>
       </c>
       <c r="D68" t="str">
         <f>"CALL cpal."&amp;A68&amp;"."&amp;B68&amp;";"</f>
-        <v>CALL cpal.seq.magenta;</v>
+        <v>CALL cpal.seq.burg;</v>
       </c>
       <c r="E68" t="str">
         <f>"$(cpal."&amp;A68&amp;"."&amp;B68&amp;IF(F68="x","."&amp;C68,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.magenta(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.burg(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>194</v>
       </c>
       <c r="B69" t="s">
-        <v>1899</v>
+        <v>1973</v>
       </c>
       <c r="C69">
         <v>7</v>
       </c>
       <c r="D69" t="str">
         <f>"CALL cpal."&amp;A69&amp;"."&amp;B69&amp;";"</f>
-        <v>CALL cpal.seq.mint;</v>
+        <v>CALL cpal.seq.burgyl;</v>
       </c>
       <c r="E69" t="str">
         <f>"$(cpal."&amp;A69&amp;"."&amp;B69&amp;IF(F69="x","."&amp;C69,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.mint(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.burgyl(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>1900</v>
+        <v>1906</v>
       </c>
       <c r="C70">
         <v>7</v>
       </c>
       <c r="D70" t="str">
         <f>"CALL cpal."&amp;A70&amp;"."&amp;B70&amp;";"</f>
-        <v>CALL cpal.seq.mint.dark;</v>
+        <v>CALL cpal.seq.buyl;</v>
       </c>
       <c r="E70" t="str">
         <f>"$(cpal."&amp;A70&amp;"."&amp;B70&amp;IF(F70="x","."&amp;C70,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.mint.dark(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.buyl(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>194</v>
       </c>
       <c r="B71" t="s">
-        <v>1921</v>
+        <v>1897</v>
       </c>
       <c r="C71">
         <v>7</v>
       </c>
       <c r="D71" t="str">
         <f>"CALL cpal."&amp;A71&amp;"."&amp;B71&amp;";"</f>
-        <v>CALL cpal.seq.orange;</v>
+        <v>CALL cpal.seq.magenta;</v>
       </c>
       <c r="E71" t="str">
         <f>"$(cpal."&amp;A71&amp;"."&amp;B71&amp;IF(F71="x","."&amp;C71,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.orange(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.magenta(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="C72">
         <v>7</v>
       </c>
       <c r="D72" t="str">
         <f>"CALL cpal."&amp;A72&amp;"."&amp;B72&amp;";"</f>
-        <v>CALL cpal.seq.oryl;</v>
+        <v>CALL cpal.seq.mint;</v>
       </c>
       <c r="E72" t="str">
         <f>"$(cpal."&amp;A72&amp;"."&amp;B72&amp;IF(F72="x","."&amp;C72,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.oryl(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.mint(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="C73">
         <v>7</v>
       </c>
       <c r="D73" t="str">
         <f>"CALL cpal."&amp;A73&amp;"."&amp;B73&amp;";"</f>
-        <v>CALL cpal.seq.peach;</v>
+        <v>CALL cpal.seq.mint.dark;</v>
       </c>
       <c r="E73" t="str">
         <f>"$(cpal."&amp;A73&amp;"."&amp;B73&amp;IF(F73="x","."&amp;C73,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.peach.7(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.mint.dark.7(&lt;measure&gt;))</v>
       </c>
       <c r="F73" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>1888</v>
+        <v>1921</v>
       </c>
       <c r="C74">
         <v>7</v>
       </c>
       <c r="D74" t="str">
         <f>"CALL cpal."&amp;A74&amp;"."&amp;B74&amp;";"</f>
-        <v>CALL cpal.seq.piyl;</v>
+        <v>CALL cpal.seq.orange;</v>
       </c>
       <c r="E74" t="str">
         <f>"$(cpal."&amp;A74&amp;"."&amp;B74&amp;IF(F74="x","."&amp;C74,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.piyl.7(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.orange.7(&lt;measure&gt;))</v>
       </c>
       <c r="F74" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>194</v>
       </c>
       <c r="B75" t="s">
-        <v>1876</v>
+        <v>1898</v>
       </c>
       <c r="C75">
         <v>7</v>
       </c>
       <c r="D75" t="str">
         <f>"CALL cpal."&amp;A75&amp;"."&amp;B75&amp;";"</f>
-        <v>CALL cpal.seq.puor;</v>
+        <v>CALL cpal.seq.oryl;</v>
       </c>
       <c r="E75" t="str">
         <f>"$(cpal."&amp;A75&amp;"."&amp;B75&amp;IF(F75="x","."&amp;C75,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.puor.7(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.oryl.7(&lt;measure&gt;))</v>
       </c>
       <c r="F75" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>194</v>
       </c>
       <c r="B76" t="s">
-        <v>1916</v>
+        <v>1896</v>
       </c>
       <c r="C76">
         <v>7</v>
       </c>
       <c r="D76" t="str">
         <f>"CALL cpal."&amp;A76&amp;"."&amp;B76&amp;";"</f>
-        <v>CALL cpal.seq.purple;</v>
+        <v>CALL cpal.seq.peach;</v>
       </c>
       <c r="E76" t="str">
         <f>"$(cpal."&amp;A76&amp;"."&amp;B76&amp;IF(F76="x","."&amp;C76,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.purple.7(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.peach.7(&lt;measure&gt;))</v>
       </c>
       <c r="F76" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>1909</v>
+        <v>1888</v>
       </c>
       <c r="C77">
         <v>7</v>
       </c>
       <c r="D77" t="str">
         <f>"CALL cpal."&amp;A77&amp;"."&amp;B77&amp;";"</f>
-        <v>CALL cpal.seq.rdor;</v>
+        <v>CALL cpal.seq.piyl;</v>
       </c>
       <c r="E77" t="str">
         <f>"$(cpal."&amp;A77&amp;"."&amp;B77&amp;IF(F77="x","."&amp;C77,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.rdor.7(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.piyl.7(&lt;measure&gt;))</v>
       </c>
       <c r="F77" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>194</v>
       </c>
       <c r="B78" t="s">
-        <v>1914</v>
+        <v>1876</v>
       </c>
       <c r="C78">
         <v>7</v>
       </c>
       <c r="D78" t="str">
         <f>"CALL cpal."&amp;A78&amp;"."&amp;B78&amp;";"</f>
-        <v>CALL cpal.seq.sunset;</v>
+        <v>CALL cpal.seq.puor;</v>
       </c>
       <c r="E78" t="str">
         <f>"$(cpal."&amp;A78&amp;"."&amp;B78&amp;IF(F78="x","."&amp;C78,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.sunset.7(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.puor.7(&lt;measure&gt;))</v>
       </c>
       <c r="F78" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>194</v>
       </c>
       <c r="B79" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C79">
         <v>7</v>
       </c>
       <c r="D79" t="str">
         <f>"CALL cpal."&amp;A79&amp;"."&amp;B79&amp;";"</f>
-        <v>CALL cpal.seq.sunset.dark;</v>
+        <v>CALL cpal.seq.purple;</v>
       </c>
       <c r="E79" t="str">
         <f>"$(cpal."&amp;A79&amp;"."&amp;B79&amp;IF(F79="x","."&amp;C79,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.sunset.dark.7(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.purple.7(&lt;measure&gt;))</v>
       </c>
       <c r="F79" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>194</v>
       </c>
       <c r="B80" t="s">
-        <v>1919</v>
+        <v>1909</v>
       </c>
       <c r="C80">
         <v>7</v>
       </c>
       <c r="D80" t="str">
         <f>"CALL cpal."&amp;A80&amp;"."&amp;B80&amp;";"</f>
-        <v>CALL cpal.seq.teal;</v>
+        <v>CALL cpal.seq.rdor;</v>
       </c>
       <c r="E80" t="str">
         <f>"$(cpal."&amp;A80&amp;"."&amp;B80&amp;IF(F80="x","."&amp;C80,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.teal.7(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.rdor.7(&lt;measure&gt;))</v>
       </c>
       <c r="F80" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>194</v>
       </c>
       <c r="B81" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="C81">
         <v>7</v>
       </c>
       <c r="D81" t="str">
         <f>"CALL cpal."&amp;A81&amp;"."&amp;B81&amp;";"</f>
-        <v>CALL cpal.seq.tlgn;</v>
+        <v>CALL cpal.seq.sunset;</v>
       </c>
       <c r="E81" t="str">
         <f>"$(cpal."&amp;A81&amp;"."&amp;B81&amp;IF(F81="x","."&amp;C81,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.tlgn.7(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.sunset.7(&lt;measure&gt;))</v>
       </c>
       <c r="F81" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B82" t="s">
-        <v>1850</v>
+        <v>1915</v>
       </c>
       <c r="C82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="str">
         <f>"CALL cpal."&amp;A82&amp;"."&amp;B82&amp;";"</f>
-        <v>CALL cpal.qual.accent;</v>
+        <v>CALL cpal.seq.sunset.dark;</v>
       </c>
       <c r="E82" t="str">
         <f>"$(cpal."&amp;A82&amp;"."&amp;B82&amp;IF(F82="x","."&amp;C82,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.accent.8(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.sunset.dark.7(&lt;measure&gt;))</v>
       </c>
       <c r="F82" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>1851</v>
+        <v>1919</v>
       </c>
       <c r="C83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="str">
         <f>"CALL cpal."&amp;A83&amp;"."&amp;B83&amp;";"</f>
-        <v>CALL cpal.qual.dark2;</v>
+        <v>CALL cpal.seq.teal;</v>
       </c>
       <c r="E83" t="str">
         <f>"$(cpal."&amp;A83&amp;"."&amp;B83&amp;IF(F83="x","."&amp;C83,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.dark2.8(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.teal.7(&lt;measure&gt;))</v>
       </c>
       <c r="F83" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B84" t="s">
-        <v>1677</v>
+        <v>1920</v>
       </c>
       <c r="C84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" t="str">
         <f>"CALL cpal."&amp;A84&amp;"."&amp;B84&amp;";"</f>
-        <v>CALL cpal.qual.nvd3;</v>
+        <v>CALL cpal.seq.tlgn;</v>
       </c>
       <c r="E84" t="str">
         <f>"$(cpal."&amp;A84&amp;"."&amp;B84&amp;IF(F84="x","."&amp;C84,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.nvd3.8(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.tlgn.7(&lt;measure&gt;))</v>
       </c>
       <c r="F84" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>195</v>
       </c>
       <c r="B85" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C85">
         <v>8</v>
       </c>
       <c r="D85" t="str">
         <f>"CALL cpal."&amp;A85&amp;"."&amp;B85&amp;";"</f>
-        <v>CALL cpal.qual.pastel2;</v>
+        <v>CALL cpal.qual.accent;</v>
       </c>
       <c r="E85" t="str">
         <f>"$(cpal."&amp;A85&amp;"."&amp;B85&amp;IF(F85="x","."&amp;C85,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.pastel2.8(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.accent.8(&lt;measure&gt;))</v>
       </c>
       <c r="F85" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>195</v>
       </c>
       <c r="B86" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="C86">
         <v>8</v>
       </c>
       <c r="D86" t="str">
         <f>"CALL cpal."&amp;A86&amp;"."&amp;B86&amp;";"</f>
-        <v>CALL cpal.qual.set2;</v>
+        <v>CALL cpal.qual.dark2;</v>
       </c>
       <c r="E86" t="str">
         <f>"$(cpal."&amp;A86&amp;"."&amp;B86&amp;IF(F86="x","."&amp;C86,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.set2.8(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.dark2.8(&lt;measure&gt;))</v>
       </c>
       <c r="F86" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>195</v>
       </c>
       <c r="B87" t="s">
-        <v>1854</v>
+        <v>1677</v>
       </c>
       <c r="C87">
         <v>8</v>
       </c>
       <c r="D87" t="str">
         <f>"CALL cpal."&amp;A87&amp;"."&amp;B87&amp;";"</f>
-        <v>CALL cpal.qual.xmen;</v>
+        <v>CALL cpal.qual.nvd3;</v>
       </c>
       <c r="E87" t="str">
         <f>"$(cpal."&amp;A87&amp;"."&amp;B87&amp;IF(F87="x","."&amp;C87,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.xmen.8(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.nvd3.8(&lt;measure&gt;))</v>
       </c>
       <c r="F87" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>195</v>
       </c>
       <c r="B88" t="s">
-        <v>1703</v>
+        <v>1853</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" t="str">
         <f>"CALL cpal."&amp;A88&amp;"."&amp;B88&amp;";"</f>
-        <v>CALL cpal.qual.chartjs;</v>
+        <v>CALL cpal.qual.pastel2;</v>
       </c>
       <c r="E88" t="str">
         <f>"$(cpal."&amp;A88&amp;"."&amp;B88&amp;IF(F88="x","."&amp;C88,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.chartjs.9(&lt;measure&gt;))</v>
+        <v>$(cpal.qual.pastel2.8(&lt;measure&gt;))</v>
       </c>
       <c r="F88" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>195</v>
       </c>
       <c r="B89" t="s">
-        <v>1704</v>
+        <v>1857</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" t="str">
         <f>"CALL cpal."&amp;A89&amp;"."&amp;B89&amp;";"</f>
-        <v>CALL cpal.qual.info;</v>
+        <v>CALL cpal.qual.set2;</v>
       </c>
       <c r="E89" t="str">
         <f>"$(cpal."&amp;A89&amp;"."&amp;B89&amp;IF(F89="x","."&amp;C89,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.info(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.set2(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>195</v>
       </c>
       <c r="B90" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" t="str">
         <f>"CALL cpal."&amp;A90&amp;"."&amp;B90&amp;";"</f>
-        <v>CALL cpal.qual.pastel1;</v>
+        <v>CALL cpal.qual.xmen;</v>
       </c>
       <c r="E90" t="str">
         <f>"$(cpal."&amp;A90&amp;"."&amp;B90&amp;IF(F90="x","."&amp;C90,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.pastel1(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.xmen(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>195</v>
       </c>
       <c r="B91" t="s">
-        <v>1855</v>
+        <v>1703</v>
       </c>
       <c r="C91">
         <v>9</v>
       </c>
       <c r="D91" t="str">
         <f>"CALL cpal."&amp;A91&amp;"."&amp;B91&amp;";"</f>
-        <v>CALL cpal.qual.pony;</v>
+        <v>CALL cpal.qual.chartjs;</v>
       </c>
       <c r="E91" t="str">
         <f>"$(cpal."&amp;A91&amp;"."&amp;B91&amp;IF(F91="x","."&amp;C91,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.pony(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.chartjs(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>1856</v>
+        <v>1704</v>
       </c>
       <c r="C92">
         <v>9</v>
       </c>
       <c r="D92" t="str">
         <f>"CALL cpal."&amp;A92&amp;"."&amp;B92&amp;";"</f>
-        <v>CALL cpal.qual.set1;</v>
+        <v>CALL cpal.qual.info;</v>
       </c>
       <c r="E92" t="str">
         <f>"$(cpal."&amp;A92&amp;"."&amp;B92&amp;IF(F92="x","."&amp;C92,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.set1(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.info(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>1917</v>
+        <v>1852</v>
       </c>
       <c r="C93">
         <v>9</v>
       </c>
       <c r="D93" t="str">
         <f>"CALL cpal."&amp;A93&amp;"."&amp;B93&amp;";"</f>
-        <v>CALL cpal.seq.blue;</v>
+        <v>CALL cpal.qual.pastel1;</v>
       </c>
       <c r="E93" t="str">
         <f>"$(cpal."&amp;A93&amp;"."&amp;B93&amp;IF(F93="x","."&amp;C93,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.blue(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.pastel1(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>1905</v>
+        <v>1855</v>
       </c>
       <c r="C94">
         <v>9</v>
       </c>
       <c r="D94" t="str">
         <f>"CALL cpal."&amp;A94&amp;"."&amp;B94&amp;";"</f>
-        <v>CALL cpal.seq.bugn;</v>
+        <v>CALL cpal.qual.pony;</v>
       </c>
       <c r="E94" t="str">
         <f>"$(cpal."&amp;A94&amp;"."&amp;B94&amp;IF(F94="x","."&amp;C94,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.bugn(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.pony(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s">
-        <v>1908</v>
+        <v>1856</v>
       </c>
       <c r="C95">
         <v>9</v>
       </c>
       <c r="D95" t="str">
         <f>"CALL cpal."&amp;A95&amp;"."&amp;B95&amp;";"</f>
-        <v>CALL cpal.seq.bupu;</v>
+        <v>CALL cpal.qual.set1;</v>
       </c>
       <c r="E95" t="str">
         <f>"$(cpal."&amp;A95&amp;"."&amp;B95&amp;IF(F95="x","."&amp;C95,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.bupu(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.set1(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>1904</v>
+        <v>1917</v>
       </c>
       <c r="C96">
         <v>9</v>
       </c>
       <c r="D96" t="str">
         <f>"CALL cpal."&amp;A96&amp;"."&amp;B96&amp;";"</f>
-        <v>CALL cpal.seq.gnbu;</v>
+        <v>CALL cpal.seq.blue;</v>
       </c>
       <c r="E96" t="str">
         <f>"$(cpal."&amp;A96&amp;"."&amp;B96&amp;IF(F96="x","."&amp;C96,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.gnbu(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.blue(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>1918</v>
+        <v>1905</v>
       </c>
       <c r="C97">
         <v>9</v>
       </c>
       <c r="D97" t="str">
         <f>"CALL cpal."&amp;A97&amp;"."&amp;B97&amp;";"</f>
-        <v>CALL cpal.seq.green;</v>
+        <v>CALL cpal.seq.bugn;</v>
       </c>
       <c r="E97" t="str">
         <f>"$(cpal."&amp;A97&amp;"."&amp;B97&amp;IF(F97="x","."&amp;C97,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.green.9(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.bugn.9(&lt;measure&gt;))</v>
       </c>
       <c r="F97" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>194</v>
       </c>
       <c r="B98" t="s">
-        <v>1923</v>
+        <v>1908</v>
       </c>
       <c r="C98">
         <v>9</v>
       </c>
       <c r="D98" t="str">
         <f>"CALL cpal."&amp;A98&amp;"."&amp;B98&amp;";"</f>
-        <v>CALL cpal.seq.grey;</v>
+        <v>CALL cpal.seq.bupu;</v>
       </c>
       <c r="E98" t="str">
         <f>"$(cpal."&amp;A98&amp;"."&amp;B98&amp;IF(F98="x","."&amp;C98,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.grey(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.bupu(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
       <c r="C99">
         <v>9</v>
       </c>
       <c r="D99" t="str">
         <f>"CALL cpal."&amp;A99&amp;"."&amp;B99&amp;";"</f>
-        <v>CALL cpal.seq.orrd;</v>
+        <v>CALL cpal.seq.gnbu;</v>
       </c>
       <c r="E99" t="str">
         <f>"$(cpal."&amp;A99&amp;"."&amp;B99&amp;IF(F99="x","."&amp;C99,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.orrd.9(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.gnbu.9(&lt;measure&gt;))</v>
       </c>
       <c r="F99" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>1966</v>
+        <v>1918</v>
       </c>
       <c r="C100">
         <v>9</v>
       </c>
       <c r="D100" t="str">
         <f>"CALL cpal."&amp;A100&amp;"."&amp;B100&amp;";"</f>
-        <v>CALL cpal.seq.pubu;</v>
+        <v>CALL cpal.seq.green;</v>
       </c>
       <c r="E100" t="str">
         <f>"$(cpal."&amp;A100&amp;"."&amp;B100&amp;IF(F100="x","."&amp;C100,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.pubu.9(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.green.9(&lt;measure&gt;))</v>
       </c>
       <c r="F100" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>1907</v>
+        <v>1923</v>
       </c>
       <c r="C101">
         <v>9</v>
       </c>
       <c r="D101" t="str">
         <f>"CALL cpal."&amp;A101&amp;"."&amp;B101&amp;";"</f>
-        <v>CALL cpal.seq.pubugn;</v>
+        <v>CALL cpal.seq.grey;</v>
       </c>
       <c r="E101" t="str">
         <f>"$(cpal."&amp;A101&amp;"."&amp;B101&amp;IF(F101="x","."&amp;C101,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.pubugn.9(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.grey.9(&lt;measure&gt;))</v>
       </c>
       <c r="F101" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>194</v>
       </c>
       <c r="B102" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C102">
         <v>9</v>
       </c>
       <c r="D102" t="str">
         <f>"CALL cpal."&amp;A102&amp;"."&amp;B102&amp;";"</f>
-        <v>CALL cpal.seq.purd;</v>
+        <v>CALL cpal.seq.orrd;</v>
       </c>
       <c r="E102" t="str">
         <f>"$(cpal."&amp;A102&amp;"."&amp;B102&amp;IF(F102="x","."&amp;C102,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.purd.9(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.orrd.9(&lt;measure&gt;))</v>
       </c>
       <c r="F102" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>194</v>
       </c>
       <c r="B103" t="s">
-        <v>1910</v>
+        <v>1966</v>
       </c>
       <c r="C103">
         <v>9</v>
       </c>
       <c r="D103" t="str">
         <f>"CALL cpal."&amp;A103&amp;"."&amp;B103&amp;";"</f>
-        <v>CALL cpal.seq.rdpu;</v>
+        <v>CALL cpal.seq.pubu;</v>
       </c>
       <c r="E103" t="str">
         <f>"$(cpal."&amp;A103&amp;"."&amp;B103&amp;IF(F103="x","."&amp;C103,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.rdpu.9(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.pubu.9(&lt;measure&gt;))</v>
       </c>
       <c r="F103" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>1922</v>
+        <v>1907</v>
       </c>
       <c r="C104">
         <v>9</v>
       </c>
       <c r="D104" t="str">
         <f>"CALL cpal."&amp;A104&amp;"."&amp;B104&amp;";"</f>
-        <v>CALL cpal.seq.red;</v>
+        <v>CALL cpal.seq.pubugn;</v>
       </c>
       <c r="E104" t="str">
         <f>"$(cpal."&amp;A104&amp;"."&amp;B104&amp;IF(F104="x","."&amp;C104,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.red.9(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.pubugn.9(&lt;measure&gt;))</v>
       </c>
       <c r="F104" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>1902</v>
+        <v>1911</v>
       </c>
       <c r="C105">
         <v>9</v>
       </c>
       <c r="D105" t="str">
         <f>"CALL cpal."&amp;A105&amp;"."&amp;B105&amp;";"</f>
-        <v>CALL cpal.seq.ylgn;</v>
+        <v>CALL cpal.seq.purd;</v>
       </c>
       <c r="E105" t="str">
         <f>"$(cpal."&amp;A105&amp;"."&amp;B105&amp;IF(F105="x","."&amp;C105,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.ylgn.9(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.purd.9(&lt;measure&gt;))</v>
       </c>
       <c r="F105" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>1903</v>
+        <v>1910</v>
       </c>
       <c r="C106">
         <v>9</v>
       </c>
       <c r="D106" t="str">
         <f>"CALL cpal."&amp;A106&amp;"."&amp;B106&amp;";"</f>
-        <v>CALL cpal.seq.ylgnbu;</v>
+        <v>CALL cpal.seq.rdpu;</v>
       </c>
       <c r="E106" t="str">
         <f>"$(cpal."&amp;A106&amp;"."&amp;B106&amp;IF(F106="x","."&amp;C106,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.ylgnbu.9(&lt;measure&gt;))</v>
+        <v>$(cpal.seq.rdpu.9(&lt;measure&gt;))</v>
       </c>
       <c r="F106" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>1967</v>
+        <v>1922</v>
       </c>
       <c r="C107">
         <v>9</v>
       </c>
       <c r="D107" t="str">
         <f>"CALL cpal."&amp;A107&amp;"."&amp;B107&amp;";"</f>
-        <v>CALL cpal.seq.ylorbr;</v>
+        <v>CALL cpal.seq.red;</v>
       </c>
       <c r="E107" t="str">
         <f>"$(cpal."&amp;A107&amp;"."&amp;B107&amp;IF(F107="x","."&amp;C107,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.ylorbr(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.red(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>1913</v>
+        <v>1902</v>
       </c>
       <c r="C108">
         <v>9</v>
       </c>
       <c r="D108" t="str">
         <f>"CALL cpal."&amp;A108&amp;"."&amp;B108&amp;";"</f>
-        <v>CALL cpal.seq.ylorrd;</v>
+        <v>CALL cpal.seq.ylgn;</v>
       </c>
       <c r="E108" t="str">
         <f>"$(cpal."&amp;A108&amp;"."&amp;B108&amp;IF(F108="x","."&amp;C108,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.seq.ylorrd(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.ylgn(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
-        <v>1705</v>
+        <v>1903</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" t="str">
         <f>"CALL cpal."&amp;A109&amp;"."&amp;B109&amp;";"</f>
-        <v>CALL cpal.qual.basel;</v>
+        <v>CALL cpal.seq.ylgnbu;</v>
       </c>
       <c r="E109" t="str">
         <f>"$(cpal."&amp;A109&amp;"."&amp;B109&amp;IF(F109="x","."&amp;C109,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.basel(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.ylgnbu(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B110" t="s">
-        <v>1706</v>
+        <v>1967</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" t="str">
         <f>"CALL cpal."&amp;A110&amp;"."&amp;B110&amp;";"</f>
-        <v>CALL cpal.qual.colorblind;</v>
+        <v>CALL cpal.seq.ylorbr;</v>
       </c>
       <c r="E110" t="str">
         <f>"$(cpal."&amp;A110&amp;"."&amp;B110&amp;IF(F110="x","."&amp;C110,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.colorblind(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.ylorbr(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B111" t="s">
-        <v>1707</v>
+        <v>1913</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" t="str">
         <f>"CALL cpal."&amp;A111&amp;"."&amp;B111&amp;";"</f>
-        <v>CALL cpal.qual.superfishelstone;</v>
+        <v>CALL cpal.seq.ylorrd;</v>
       </c>
       <c r="E111" t="str">
         <f>"$(cpal."&amp;A111&amp;"."&amp;B111&amp;IF(F111="x","."&amp;C111,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.superfishelstone(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>$(cpal.seq.ylorrd(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>195</v>
       </c>
       <c r="B112" t="s">
-        <v>1493</v>
+        <v>1705</v>
       </c>
       <c r="C112">
         <v>10</v>
       </c>
       <c r="D112" t="str">
         <f>"CALL cpal."&amp;A112&amp;"."&amp;B112&amp;";"</f>
-        <v>CALL cpal.qual.tableau;</v>
+        <v>CALL cpal.qual.basel;</v>
       </c>
       <c r="E112" t="str">
         <f>"$(cpal."&amp;A112&amp;"."&amp;B112&amp;IF(F112="x","."&amp;C112,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.tableau(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.basel(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>195</v>
       </c>
       <c r="B113" t="s">
-        <v>1940</v>
+        <v>1706</v>
       </c>
       <c r="C113">
         <v>10</v>
       </c>
       <c r="D113" t="str">
         <f>"CALL cpal."&amp;A113&amp;"."&amp;B113&amp;";"</f>
-        <v>CALL cpal.qual.tableau.classic.10;</v>
+        <v>CALL cpal.qual.colorblind;</v>
       </c>
       <c r="E113" t="str">
         <f>"$(cpal."&amp;A113&amp;"."&amp;B113&amp;IF(F113="x","."&amp;C113,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.tableau.classic.10(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.colorblind(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>195</v>
       </c>
       <c r="B114" t="s">
-        <v>1939</v>
+        <v>1707</v>
       </c>
       <c r="C114">
         <v>10</v>
       </c>
       <c r="D114" t="str">
         <f>"CALL cpal."&amp;A114&amp;"."&amp;B114&amp;";"</f>
-        <v>CALL cpal.qual.tableau.classic.medium;</v>
+        <v>CALL cpal.qual.superfishelstone;</v>
       </c>
       <c r="E114" t="str">
         <f>"$(cpal."&amp;A114&amp;"."&amp;B114&amp;IF(F114="x","."&amp;C114,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.tableau.classic.medium(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.superfishelstone(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1924</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
-        <v>1969</v>
+        <v>1493</v>
       </c>
       <c r="C115">
         <v>10</v>
       </c>
       <c r="D115" t="str">
         <f>"CALL cpal."&amp;A115&amp;"."&amp;B115&amp;";"</f>
-        <v>CALL cpal.swat.google.blue.gray;</v>
+        <v>CALL cpal.qual.tableau;</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" ref="E115:E116" si="0">"$(cpal."&amp;B115&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
-        <v>$(cpal.google.blue.gray.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;A115&amp;"."&amp;B115&amp;IF(F115="x","."&amp;C115,"")&amp;"(&lt;measure&gt;))"</f>
+        <v>$(cpal.qual.tableau(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1924</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
-        <v>1935</v>
+        <v>1940</v>
       </c>
       <c r="C116">
         <v>10</v>
       </c>
       <c r="D116" t="str">
         <f>"CALL cpal."&amp;A116&amp;"."&amp;B116&amp;";"</f>
-        <v>CALL cpal.swat.google.gray;</v>
+        <v>CALL cpal.qual.tableau.classic.10;</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="0"/>
-        <v>$(cpal.google.gray.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;A116&amp;"."&amp;B116&amp;IF(F116="x","."&amp;C116,"")&amp;"(&lt;measure&gt;))"</f>
+        <v>$(cpal.qual.tableau.classic.10(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B117" t="s">
-        <v>1877</v>
+        <v>1939</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" t="str">
         <f>"CALL cpal."&amp;A117&amp;"."&amp;B117&amp;";"</f>
-        <v>CALL cpal.div.brbg;</v>
+        <v>CALL cpal.qual.tableau.classic.medium;</v>
       </c>
       <c r="E117" t="str">
         <f>"$(cpal."&amp;A117&amp;"."&amp;B117&amp;IF(F117="x","."&amp;C117,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.brbg(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.tableau.classic.medium(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>1924</v>
       </c>
       <c r="B118" t="s">
-        <v>1858</v>
+        <v>1969</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" t="str">
         <f>"CALL cpal."&amp;A118&amp;"."&amp;B118&amp;";"</f>
-        <v>CALL cpal.div.picnic;</v>
+        <v>CALL cpal.swat.google.blue.gray;</v>
       </c>
       <c r="E118" t="str">
-        <f>"$(cpal."&amp;A118&amp;"."&amp;B118&amp;IF(F118="x","."&amp;C118,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.picnic(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B118&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.blue.gray.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>1924</v>
       </c>
       <c r="B119" t="s">
-        <v>1883</v>
+        <v>1935</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" t="str">
         <f>"CALL cpal."&amp;A119&amp;"."&amp;B119&amp;";"</f>
-        <v>CALL cpal.div.piyg;</v>
+        <v>CALL cpal.swat.google.gray;</v>
       </c>
       <c r="E119" t="str">
-        <f>"$(cpal."&amp;A119&amp;"."&amp;B119&amp;IF(F119="x","."&amp;C119,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.piyg(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B119&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.gray.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>193</v>
       </c>
       <c r="B120" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C120">
         <v>11</v>
       </c>
       <c r="D120" t="str">
         <f>"CALL cpal."&amp;A120&amp;"."&amp;B120&amp;";"</f>
-        <v>CALL cpal.div.pugn;</v>
+        <v>CALL cpal.div.brbg;</v>
       </c>
       <c r="E120" t="str">
         <f>"$(cpal."&amp;A120&amp;"."&amp;B120&amp;IF(F120="x","."&amp;C120,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.pugn(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.brbg(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>193</v>
       </c>
       <c r="B121" t="s">
-        <v>1876</v>
+        <v>1858</v>
       </c>
       <c r="C121">
         <v>11</v>
       </c>
       <c r="D121" t="str">
         <f>"CALL cpal."&amp;A121&amp;"."&amp;B121&amp;";"</f>
-        <v>CALL cpal.div.puor;</v>
+        <v>CALL cpal.div.picnic;</v>
       </c>
       <c r="E121" t="str">
         <f>"$(cpal."&amp;A121&amp;"."&amp;B121&amp;IF(F121="x","."&amp;C121,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.puor(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.picnic(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>193</v>
       </c>
       <c r="B122" t="s">
-        <v>1963</v>
+        <v>1883</v>
       </c>
       <c r="C122">
         <v>11</v>
       </c>
       <c r="D122" t="str">
         <f>"CALL cpal."&amp;A122&amp;"."&amp;B122&amp;";"</f>
-        <v>CALL cpal.div.rdbu;</v>
+        <v>CALL cpal.div.piyg;</v>
       </c>
       <c r="E122" t="str">
         <f>"$(cpal."&amp;A122&amp;"."&amp;B122&amp;IF(F122="x","."&amp;C122,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.rdbu(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.piyg(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="C123">
         <v>11</v>
       </c>
       <c r="D123" t="str">
         <f>"CALL cpal."&amp;A123&amp;"."&amp;B123&amp;";"</f>
-        <v>CALL cpal.div.rdgy;</v>
+        <v>CALL cpal.div.pugn;</v>
       </c>
       <c r="E123" t="str">
         <f>"$(cpal."&amp;A123&amp;"."&amp;B123&amp;IF(F123="x","."&amp;C123,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.rdgy(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.pugn(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
       <c r="C124">
         <v>11</v>
       </c>
       <c r="D124" t="str">
         <f>"CALL cpal."&amp;A124&amp;"."&amp;B124&amp;";"</f>
-        <v>CALL cpal.div.rdylbu;</v>
+        <v>CALL cpal.div.puor;</v>
       </c>
       <c r="E124" t="str">
         <f>"$(cpal."&amp;A124&amp;"."&amp;B124&amp;IF(F124="x","."&amp;C124,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.rdylbu(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.puor(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>193</v>
       </c>
       <c r="B125" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="C125">
         <v>11</v>
       </c>
       <c r="D125" t="str">
         <f>"CALL cpal."&amp;A125&amp;"."&amp;B125&amp;";"</f>
-        <v>CALL cpal.div.rdylgn;</v>
+        <v>CALL cpal.div.rdbu;</v>
       </c>
       <c r="E125" t="str">
         <f>"$(cpal."&amp;A125&amp;"."&amp;B125&amp;IF(F125="x","."&amp;C125,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.rdylgn(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.rdbu(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="C126">
         <v>11</v>
       </c>
       <c r="D126" t="str">
         <f>"CALL cpal."&amp;A126&amp;"."&amp;B126&amp;";"</f>
-        <v>CALL cpal.div.spectral;</v>
+        <v>CALL cpal.div.rdgy;</v>
       </c>
       <c r="E126" t="str">
         <f>"$(cpal."&amp;A126&amp;"."&amp;B126&amp;IF(F126="x","."&amp;C126,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.div.spectral(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.rdgy(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B127" t="s">
-        <v>1472</v>
+        <v>1885</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" t="str">
         <f>"CALL cpal."&amp;A127&amp;"."&amp;B127&amp;";"</f>
-        <v>CALL cpal.qual.bold;</v>
+        <v>CALL cpal.div.rdylbu;</v>
       </c>
       <c r="E127" t="str">
         <f>"$(cpal."&amp;A127&amp;"."&amp;B127&amp;IF(F127="x","."&amp;C127,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.bold(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.rdylbu(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B128" t="s">
-        <v>1753</v>
+        <v>1965</v>
       </c>
       <c r="C128">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" t="str">
         <f>"CALL cpal."&amp;A128&amp;"."&amp;B128&amp;";"</f>
-        <v>CALL cpal.qual.paired;</v>
+        <v>CALL cpal.div.rdylgn;</v>
       </c>
       <c r="E128" t="str">
         <f>"$(cpal."&amp;A128&amp;"."&amp;B128&amp;IF(F128="x","."&amp;C128,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.paired(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.rdylgn(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>1460</v>
+        <v>1886</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D129" t="str">
         <f>"CALL cpal."&amp;A129&amp;"."&amp;B129&amp;";"</f>
-        <v>CALL cpal.qual.prism;</v>
+        <v>CALL cpal.div.spectral;</v>
       </c>
       <c r="E129" t="str">
         <f>"$(cpal."&amp;A129&amp;"."&amp;B129&amp;IF(F129="x","."&amp;C129,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.prism(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.div.spectral(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>195</v>
       </c>
       <c r="B130" t="s">
-        <v>1860</v>
+        <v>1472</v>
       </c>
       <c r="C130">
         <v>12</v>
       </c>
       <c r="D130" t="str">
         <f>"CALL cpal."&amp;A130&amp;"."&amp;B130&amp;";"</f>
-        <v>CALL cpal.qual.set3;</v>
+        <v>CALL cpal.qual.bold;</v>
       </c>
       <c r="E130" t="str">
         <f>"$(cpal."&amp;A130&amp;"."&amp;B130&amp;IF(F130="x","."&amp;C130,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.set3(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.bold(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>1859</v>
+        <v>1753</v>
       </c>
       <c r="C131">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D131" t="str">
         <f>"CALL cpal."&amp;A131&amp;"."&amp;B131&amp;";"</f>
-        <v>CALL cpal.qual.info2;</v>
+        <v>CALL cpal.qual.paired;</v>
       </c>
       <c r="E131" t="str">
         <f>"$(cpal."&amp;A131&amp;"."&amp;B131&amp;IF(F131="x","."&amp;C131,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.info2(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.paired(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1924</v>
+        <v>195</v>
       </c>
       <c r="B132" t="s">
-        <v>1934</v>
+        <v>1460</v>
       </c>
       <c r="C132">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D132" t="str">
         <f>"CALL cpal."&amp;A132&amp;"."&amp;B132&amp;";"</f>
-        <v>CALL cpal.swat.google.amber;</v>
+        <v>CALL cpal.qual.prism;</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" ref="E132:E147" si="1">"$(cpal."&amp;B132&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
-        <v>$(cpal.google.amber.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;A132&amp;"."&amp;B132&amp;IF(F132="x","."&amp;C132,"")&amp;"(&lt;measure&gt;))"</f>
+        <v>$(cpal.qual.prism(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1924</v>
+        <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>1928</v>
+        <v>1860</v>
       </c>
       <c r="C133">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D133" t="str">
         <f>"CALL cpal."&amp;A133&amp;"."&amp;B133&amp;";"</f>
-        <v>CALL cpal.swat.google.blue;</v>
+        <v>CALL cpal.qual.set3;</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.blue.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;A133&amp;"."&amp;B133&amp;IF(F133="x","."&amp;C133,"")&amp;"(&lt;measure&gt;))"</f>
+        <v>$(cpal.qual.set3(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1924</v>
+        <v>195</v>
       </c>
       <c r="B134" t="s">
-        <v>1938</v>
+        <v>1859</v>
       </c>
       <c r="C134">
         <v>14</v>
       </c>
       <c r="D134" t="str">
         <f>"CALL cpal."&amp;A134&amp;"."&amp;B134&amp;";"</f>
-        <v>CALL cpal.swat.google.blue.light;</v>
+        <v>CALL cpal.qual.info2;</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.blue.light.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;A134&amp;"."&amp;B134&amp;IF(F134="x","."&amp;C134,"")&amp;"(&lt;measure&gt;))"</f>
+        <v>$(cpal.qual.info2(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1924</v>
       </c>
       <c r="B135" t="s">
-        <v>1929</v>
+        <v>1934</v>
       </c>
       <c r="C135">
         <v>14</v>
       </c>
       <c r="D135" t="str">
         <f>"CALL cpal."&amp;A135&amp;"."&amp;B135&amp;";"</f>
-        <v>CALL cpal.swat.google.cyan;</v>
+        <v>CALL cpal.swat.google.amber;</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.cyan.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B135&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.amber.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1924</v>
       </c>
       <c r="B136" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="C136">
         <v>14</v>
       </c>
       <c r="D136" t="str">
         <f>"CALL cpal."&amp;A136&amp;"."&amp;B136&amp;";"</f>
-        <v>CALL cpal.swat.google.green;</v>
+        <v>CALL cpal.swat.google.blue;</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.green.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B136&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.blue.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1924</v>
       </c>
       <c r="B137" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C137">
         <v>14</v>
       </c>
       <c r="D137" t="str">
         <f>"CALL cpal."&amp;A137&amp;"."&amp;B137&amp;";"</f>
-        <v>CALL cpal.swat.google.green.light;</v>
+        <v>CALL cpal.swat.google.blue.light;</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.green.light.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B137&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.blue.light.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1924</v>
       </c>
       <c r="B138" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="C138">
         <v>14</v>
       </c>
       <c r="D138" t="str">
         <f>"CALL cpal."&amp;A138&amp;"."&amp;B138&amp;";"</f>
-        <v>CALL cpal.swat.google.indigo;</v>
+        <v>CALL cpal.swat.google.cyan;</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.indigo.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B138&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.cyan.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1924</v>
       </c>
       <c r="B139" t="s">
-        <v>1972</v>
+        <v>1931</v>
       </c>
       <c r="C139">
         <v>14</v>
       </c>
       <c r="D139" t="str">
         <f>"CALL cpal."&amp;A139&amp;"."&amp;B139&amp;";"</f>
-        <v>CALL cpal.swat.google.lime;</v>
+        <v>CALL cpal.swat.google.green;</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.lime.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B139&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.green.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1924</v>
       </c>
       <c r="B140" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="C140">
         <v>14</v>
       </c>
       <c r="D140" t="str">
         <f>"CALL cpal."&amp;A140&amp;"."&amp;B140&amp;";"</f>
-        <v>CALL cpal.swat.google.orange;</v>
+        <v>CALL cpal.swat.google.green.light;</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.orange.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B140&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.green.light.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1924</v>
       </c>
       <c r="B141" t="s">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="C141">
         <v>14</v>
       </c>
       <c r="D141" t="str">
         <f>"CALL cpal."&amp;A141&amp;"."&amp;B141&amp;";"</f>
-        <v>CALL cpal.swat.google.orange.deep;</v>
+        <v>CALL cpal.swat.google.indigo;</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.orange.deep.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B141&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.indigo.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1924</v>
       </c>
       <c r="B142" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="C142">
         <v>14</v>
       </c>
       <c r="D142" t="str">
         <f>"CALL cpal."&amp;A142&amp;"."&amp;B142&amp;";"</f>
-        <v>CALL cpal.swat.google.pink;</v>
+        <v>CALL cpal.swat.google.lime;</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.pink.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B142&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.lime.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1924</v>
       </c>
       <c r="B143" t="s">
-        <v>1926</v>
+        <v>1933</v>
       </c>
       <c r="C143">
         <v>14</v>
       </c>
       <c r="D143" t="str">
         <f>"CALL cpal."&amp;A143&amp;"."&amp;B143&amp;";"</f>
-        <v>CALL cpal.swat.google.purple;</v>
+        <v>CALL cpal.swat.google.orange;</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.purple.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B143&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.orange.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1924</v>
       </c>
       <c r="B144" t="s">
-        <v>1971</v>
+        <v>1936</v>
       </c>
       <c r="C144">
         <v>14</v>
       </c>
       <c r="D144" t="str">
         <f>"CALL cpal."&amp;A144&amp;"."&amp;B144&amp;";"</f>
-        <v>CALL cpal.swat.google.purple.deep;</v>
+        <v>CALL cpal.swat.google.orange.deep;</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.purple.deep.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B144&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.orange.deep.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1924</v>
       </c>
       <c r="B145" t="s">
-        <v>1925</v>
+        <v>1970</v>
       </c>
       <c r="C145">
         <v>14</v>
       </c>
       <c r="D145" t="str">
         <f>"CALL cpal."&amp;A145&amp;"."&amp;B145&amp;";"</f>
-        <v>CALL cpal.swat.google.red;</v>
+        <v>CALL cpal.swat.google.pink;</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.red.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B145&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.pink.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1924</v>
       </c>
       <c r="B146" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="C146">
         <v>14</v>
       </c>
       <c r="D146" t="str">
         <f>"CALL cpal."&amp;A146&amp;"."&amp;B146&amp;";"</f>
-        <v>CALL cpal.swat.google.teal;</v>
+        <v>CALL cpal.swat.google.purple;</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.teal.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B146&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.purple.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1924</v>
       </c>
       <c r="B147" t="s">
-        <v>1932</v>
+        <v>1971</v>
       </c>
       <c r="C147">
         <v>14</v>
       </c>
       <c r="D147" t="str">
         <f>"CALL cpal."&amp;A147&amp;"."&amp;B147&amp;";"</f>
-        <v>CALL cpal.swat.google.yellow;</v>
+        <v>CALL cpal.swat.google.purple.deep;</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="1"/>
-        <v>$(cpal.google.yellow.&lt;shade&gt;(&lt;0-255&gt;))</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B147&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.purple.deep.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>1924</v>
       </c>
       <c r="B148" t="s">
-        <v>1754</v>
+        <v>1925</v>
       </c>
       <c r="C148">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D148" t="str">
         <f>"CALL cpal."&amp;A148&amp;"."&amp;B148&amp;";"</f>
-        <v>CALL cpal.qual.tableau.20;</v>
+        <v>CALL cpal.swat.google.red;</v>
       </c>
       <c r="E148" t="str">
-        <f>"$(cpal."&amp;A148&amp;"."&amp;B148&amp;IF(F148="x","."&amp;C148,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.tableau.20(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B148&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.red.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>195</v>
+        <v>1924</v>
       </c>
       <c r="B149" t="s">
-        <v>1941</v>
+        <v>1930</v>
       </c>
       <c r="C149">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D149" t="str">
         <f>"CALL cpal."&amp;A149&amp;"."&amp;B149&amp;";"</f>
-        <v>CALL cpal.qual.tableau.classic.20;</v>
+        <v>CALL cpal.swat.google.teal;</v>
       </c>
       <c r="E149" t="str">
-        <f>"$(cpal."&amp;A149&amp;"."&amp;B149&amp;IF(F149="x","."&amp;C149,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.tableau.classic.20(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B149&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.teal.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>195</v>
+        <v>1924</v>
       </c>
       <c r="B150" t="s">
-        <v>1755</v>
+        <v>1932</v>
       </c>
       <c r="C150">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D150" t="str">
         <f>"CALL cpal."&amp;A150&amp;"."&amp;B150&amp;";"</f>
-        <v>CALL cpal.qual.powerbi.24;</v>
+        <v>CALL cpal.swat.google.yellow;</v>
       </c>
       <c r="E150" t="str">
-        <f>"$(cpal."&amp;A150&amp;"."&amp;B150&amp;IF(F150="x","."&amp;C150,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.qual.powerbi.24(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"$(cpal."&amp;B150&amp;".&lt;shade&gt;(&lt;0-255&gt;))"</f>
+        <v>$(cpal.google.yellow.&lt;shade&gt;(&lt;0-255&gt;))</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1415</v>
+        <v>195</v>
       </c>
       <c r="B151" t="s">
-        <v>1871</v>
+        <v>1754</v>
       </c>
       <c r="C151">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="D151" t="str">
         <f>"CALL cpal."&amp;A151&amp;"."&amp;B151&amp;";"</f>
-        <v>CALL cpal.perc.inferno;</v>
+        <v>CALL cpal.qual.tableau.20;</v>
       </c>
       <c r="E151" t="str">
         <f>"$(cpal."&amp;A151&amp;"."&amp;B151&amp;IF(F151="x","."&amp;C151,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.perc.inferno(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.tableau.20(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1415</v>
+        <v>195</v>
       </c>
       <c r="B152" t="s">
-        <v>1870</v>
+        <v>1941</v>
       </c>
       <c r="C152">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="D152" t="str">
         <f>"CALL cpal."&amp;A152&amp;"."&amp;B152&amp;";"</f>
-        <v>CALL cpal.perc.magma;</v>
+        <v>CALL cpal.qual.tableau.classic.20;</v>
       </c>
       <c r="E152" t="str">
         <f>"$(cpal."&amp;A152&amp;"."&amp;B152&amp;IF(F152="x","."&amp;C152,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.perc.magma(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.tableau.classic.20(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1415</v>
+        <v>195</v>
       </c>
       <c r="B153" t="s">
-        <v>1869</v>
+        <v>1755</v>
       </c>
       <c r="C153">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="D153" t="str">
         <f>"CALL cpal."&amp;A153&amp;"."&amp;B153&amp;";"</f>
-        <v>CALL cpal.perc.plasma;</v>
+        <v>CALL cpal.qual.powerbi.24;</v>
       </c>
       <c r="E153" t="str">
         <f>"$(cpal."&amp;A153&amp;"."&amp;B153&amp;IF(F153="x","."&amp;C153,"")&amp;"(&lt;measure&gt;))"</f>
-        <v>$(cpal.perc.plasma(&lt;measure&gt;))</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>$(cpal.qual.powerbi.24(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1415</v>
       </c>
       <c r="B154" t="s">
-        <v>1534</v>
+        <v>1871</v>
       </c>
       <c r="C154">
         <v>255</v>
       </c>
       <c r="D154" t="str">
         <f>"CALL cpal."&amp;A154&amp;"."&amp;B154&amp;";"</f>
-        <v>CALL cpal.perc.viridis;</v>
+        <v>CALL cpal.perc.inferno;</v>
       </c>
       <c r="E154" t="str">
         <f>"$(cpal."&amp;A154&amp;"."&amp;B154&amp;IF(F154="x","."&amp;C154,"")&amp;"(&lt;measure&gt;))"</f>
+        <v>$(cpal.perc.inferno(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C155">
+        <v>255</v>
+      </c>
+      <c r="D155" t="str">
+        <f>"CALL cpal."&amp;A155&amp;"."&amp;B155&amp;";"</f>
+        <v>CALL cpal.perc.magma;</v>
+      </c>
+      <c r="E155" t="str">
+        <f>"$(cpal."&amp;A155&amp;"."&amp;B155&amp;IF(F155="x","."&amp;C155,"")&amp;"(&lt;measure&gt;))"</f>
+        <v>$(cpal.perc.magma(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C156">
+        <v>255</v>
+      </c>
+      <c r="D156" t="str">
+        <f>"CALL cpal."&amp;A156&amp;"."&amp;B156&amp;";"</f>
+        <v>CALL cpal.perc.plasma;</v>
+      </c>
+      <c r="E156" t="str">
+        <f>"$(cpal."&amp;A156&amp;"."&amp;B156&amp;IF(F156="x","."&amp;C156,"")&amp;"(&lt;measure&gt;))"</f>
+        <v>$(cpal.perc.plasma(&lt;measure&gt;))</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C157">
+        <v>255</v>
+      </c>
+      <c r="D157" t="str">
+        <f>"CALL cpal."&amp;A157&amp;"."&amp;B157&amp;";"</f>
+        <v>CALL cpal.perc.viridis;</v>
+      </c>
+      <c r="E157" t="str">
+        <f>"$(cpal."&amp;A157&amp;"."&amp;B157&amp;IF(F157="x","."&amp;C157,"")&amp;"(&lt;measure&gt;))"</f>
         <v>$(cpal.perc.viridis(&lt;measure&gt;))</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E154" xr:uid="{708420DD-C169-4EC8-BE1A-AC48FAB04E1C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E156">
-    <sortCondition ref="C2:C156"/>
-    <sortCondition ref="A2:A156"/>
-    <sortCondition ref="B2:B156"/>
+  <autoFilter ref="A1:E157" xr:uid="{708420DD-C169-4EC8-BE1A-AC48FAB04E1C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="brand"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E157">
+    <sortCondition ref="C2:C157"/>
+    <sortCondition ref="A2:A157"/>
+    <sortCondition ref="B2:B157"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
